--- a/2-from-excel-calculations-to-r-development/calculations-in-excel.xlsx
+++ b/2-from-excel-calculations-to-r-development/calculations-in-excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\OReilly_Slides\R for Excel Users\2. From Excel calculations to R development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\Webinar - R for Excel Users\Resources - R for Excel Users Webinar\2-from-excel-calculations-to-r-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9189"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total</t>
   </si>
@@ -35,7 +35,10 @@
     <t>times two…</t>
   </si>
   <si>
-    <t>break the chain with R….</t>
+    <t>A spaghetti web of references…</t>
+  </si>
+  <si>
+    <t>Break the chain with objects/variables in R.</t>
   </si>
 </sst>
 </file>
@@ -353,41 +356,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -395,8 +399,12 @@
         <f>SUM(B2:B6)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
+        <v>=SUM(B2:B6)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -404,8 +412,12 @@
         <f>SQRT(B7)</f>
         <v>3.872983346207417</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
+        <v>=SQRT(B7)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -413,10 +425,19 @@
         <f>B8*2</f>
         <v>7.745966692414834</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B9)</f>
+        <v>=B8*2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
